--- a/数据模板/发情信息导入模板.xlsx
+++ b/数据模板/发情信息导入模板.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Liuzq\Desktop\数据模板\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="17235" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>牛只编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,41 +49,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DR001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然发情</t>
-  </si>
-  <si>
-    <t>计步器</t>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>等待</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发现人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR002</t>
+  </si>
+  <si>
+    <t>DR003</t>
+  </si>
+  <si>
+    <t>石军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入员工3</t>
+  </si>
+  <si>
+    <t>人工</t>
+  </si>
+  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工催情</t>
+  </si>
+  <si>
+    <t>未配</t>
+  </si>
+  <si>
+    <t>已配</t>
   </si>
 </sst>
 </file>
@@ -147,12 +155,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,7 +460,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="7.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -466,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -483,44 +495,79 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42157.377083333333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>42148.377083333333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42157.377083333333</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4:C1048576">
       <formula1>"自然发情,人工发情"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"自然发情,人工催情"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"人工,计步器"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G1048576">
       <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"未配,已配"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
